--- a/informacion_estudiantes.xlsx
+++ b/informacion_estudiantes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nombre de Empresa</t>
   </si>
@@ -56,39 +56,6 @@
   </si>
   <si>
     <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Empresa Prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 m de prueba </t>
-  </si>
-  <si>
-    <t>Juanito Perez</t>
-  </si>
-  <si>
-    <t>Supervisa</t>
-  </si>
-  <si>
-    <t>supervisor@gmail.com</t>
-  </si>
-  <si>
-    <t>Revision</t>
-  </si>
-  <si>
-    <t>desarrollo</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Valeria Prado</t>
-  </si>
-  <si>
-    <t>valeria44a@estudiantec.cr</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -465,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -513,53 +480,6 @@
       </c>
       <c r="O1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>24102570</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>2020132773</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2">
-        <v>83698238</v>
       </c>
     </row>
   </sheetData>

--- a/informacion_estudiantes.xlsx
+++ b/informacion_estudiantes.xlsx
@@ -11,51 +11,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Nombre de Empresa</t>
-  </si>
-  <si>
-    <t>Dirección Empresa</t>
-  </si>
-  <si>
-    <t>Número Empresa</t>
-  </si>
-  <si>
-    <t>Nombre Supervisor</t>
-  </si>
-  <si>
-    <t>Puesto Supervisor</t>
-  </si>
-  <si>
-    <t>Correo Supervisor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+  <si>
+    <t>Carnet</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Cursos</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>NumeroEmpresa</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>PuestoSupervisor</t>
+  </si>
+  <si>
+    <t>CorreoSupervisor</t>
+  </si>
+  <si>
+    <t>TipoProyecto</t>
+  </si>
+  <si>
+    <t>Profesor</t>
+  </si>
+  <si>
+    <t>Teletrabajo</t>
   </si>
   <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Profesor Encargado</t>
-  </si>
-  <si>
-    <t>Teletrabajo</t>
-  </si>
-  <si>
-    <t>Carnet</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Cursos</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
+    <t>Valeria Prado</t>
+  </si>
+  <si>
+    <t>valeria44a@estudiantec.cr</t>
+  </si>
+  <si>
+    <t>Redes</t>
+  </si>
+  <si>
+    <t>Konrad</t>
+  </si>
+  <si>
+    <t>Tres Rios</t>
+  </si>
+  <si>
+    <t>Caro</t>
+  </si>
+  <si>
+    <t>Supervisa</t>
+  </si>
+  <si>
+    <t>supervisor@gmail.com</t>
+  </si>
+  <si>
+    <t>desarrollo</t>
+  </si>
+  <si>
+    <t>Sofia Castro</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>Acosta</t>
+  </si>
+  <si>
+    <t>Juanito Perez</t>
+  </si>
+  <si>
+    <t>investigacion</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Cantidad Total</t>
   </si>
 </sst>
 </file>
@@ -432,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -480,6 +537,108 @@
       </c>
       <c r="O1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2020132773</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>83698238</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>22102536</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2020132773</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>83698238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>20365898</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
